--- a/data/cleaned_data/2020_FL.xlsx
+++ b/data/cleaned_data/2020_FL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="287">
   <si>
     <t>County</t>
   </si>
@@ -223,6 +223,18 @@
     <t>Union</t>
   </si>
   <si>
+    <t>Volusia</t>
+  </si>
+  <si>
+    <t>Wakulla</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
@@ -370,6 +382,12 @@
     <t>2</t>
   </si>
   <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>3,266</t>
   </si>
   <si>
@@ -559,6 +577,15 @@
     <t>135</t>
   </si>
   <si>
+    <t>6,271</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
     <t>4,617</t>
   </si>
   <si>
@@ -743,6 +770,18 @@
   </si>
   <si>
     <t>144</t>
+  </si>
+  <si>
+    <t>9,141</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>1,342</t>
+  </si>
+  <si>
+    <t>432</t>
   </si>
   <si>
     <t>Gainesville, FL</t>
@@ -1193,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,22 +1266,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E2">
         <v>278684</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1250,22 +1289,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E3">
         <v>28309</v>
       </c>
       <c r="F3" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1273,22 +1312,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E4">
         <v>174461</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="G4" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1296,13 +1335,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E5">
         <v>28364</v>
@@ -1313,22 +1352,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E6">
         <v>608007</v>
       </c>
       <c r="F6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="G6" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1336,22 +1375,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E7">
         <v>1941516</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1359,13 +1398,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E8">
         <v>13615</v>
@@ -1376,22 +1415,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E9">
         <v>187960</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="G9" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1399,22 +1438,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E10">
         <v>154403</v>
       </c>
       <c r="F10" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="G10" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1422,22 +1461,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E11">
         <v>218797</v>
       </c>
       <c r="F11" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1445,22 +1484,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E12">
         <v>377079</v>
       </c>
       <c r="F12" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="G12" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1468,22 +1507,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E13">
         <v>69889</v>
       </c>
       <c r="F13" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="G13" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1491,22 +1530,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E14">
         <v>34080</v>
       </c>
       <c r="F14" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G14" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1514,13 +1553,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E15">
         <v>16805</v>
@@ -1531,22 +1570,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E16">
         <v>996373</v>
       </c>
       <c r="F16" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G16" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1554,22 +1593,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E17">
         <v>322424</v>
       </c>
       <c r="F17" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="G17" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1577,22 +1616,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E18">
         <v>115968</v>
       </c>
       <c r="F18" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="G18" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1600,13 +1639,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E19">
         <v>12456</v>
@@ -1617,22 +1656,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E20">
         <v>43701</v>
       </c>
       <c r="F20" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G20" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1640,22 +1679,22 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E21">
         <v>17928</v>
       </c>
       <c r="F21" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="G21" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1663,13 +1702,13 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E22">
         <v>12179</v>
@@ -1680,13 +1719,13 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E23">
         <v>14181</v>
@@ -1697,13 +1736,13 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E24">
         <v>13988</v>
@@ -1714,22 +1753,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E25">
         <v>25313</v>
       </c>
       <c r="F25" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="G25" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1737,22 +1776,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E26">
         <v>39707</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1760,22 +1799,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E27">
         <v>195508</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G27" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1783,22 +1822,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E28">
         <v>101222</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="G28" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1806,22 +1845,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E29">
         <v>1463380</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G29" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1829,13 +1868,13 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E30">
         <v>19622</v>
@@ -1846,22 +1885,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E31">
         <v>160345</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1869,13 +1908,13 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E32">
         <v>47214</v>
@@ -1886,22 +1925,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E33">
         <v>14560</v>
       </c>
       <c r="F33" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1909,13 +1948,13 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E34">
         <v>8252</v>
@@ -1926,22 +1965,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E35">
         <v>385875</v>
       </c>
       <c r="F35" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G35" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1949,22 +1988,22 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E36">
         <v>764679</v>
       </c>
       <c r="F36" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="G36" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1972,22 +2011,22 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E37">
         <v>292378</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G37" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1995,22 +2034,22 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E38">
         <v>43051</v>
       </c>
       <c r="F38" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="G38" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2018,13 +2057,13 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E39">
         <v>7974</v>
@@ -2035,13 +2074,13 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E40">
         <v>17976</v>
@@ -2052,22 +2091,22 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E41">
         <v>401443</v>
       </c>
       <c r="F41" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G41" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2075,22 +2114,22 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E42">
         <v>377370</v>
       </c>
       <c r="F42" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G42" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2098,22 +2137,22 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E43">
         <v>158529</v>
       </c>
       <c r="F43" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="G43" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2121,22 +2160,22 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E44">
         <v>2692459</v>
       </c>
       <c r="F44" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G44" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2144,22 +2183,22 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E45">
         <v>82809</v>
       </c>
       <c r="F45" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G45" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2167,22 +2206,22 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D46" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E46">
         <v>90993</v>
       </c>
       <c r="F46" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G46" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2190,22 +2229,22 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E47">
         <v>211809</v>
       </c>
       <c r="F47" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="G47" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2213,22 +2252,22 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E48">
         <v>39641</v>
       </c>
       <c r="F48" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="G48" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2236,22 +2275,22 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E49">
         <v>1429899</v>
       </c>
       <c r="F49" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G49" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2259,22 +2298,22 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E50">
         <v>390855</v>
       </c>
       <c r="F50" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G50" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2282,22 +2321,22 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E51">
         <v>1492466</v>
       </c>
       <c r="F51" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G51" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2305,22 +2344,22 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E52">
         <v>565745</v>
       </c>
       <c r="F52" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G52" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2328,22 +2367,22 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E53">
         <v>958752</v>
       </c>
       <c r="F53" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G53" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2351,22 +2390,22 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D54" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E54">
         <v>729233</v>
       </c>
       <c r="F54" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G54" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2374,22 +2413,22 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E55">
         <v>73347</v>
       </c>
       <c r="F55" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G55" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2397,22 +2436,22 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D56" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E56">
         <v>189133</v>
       </c>
       <c r="F56" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="G56" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2420,22 +2459,22 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E57">
         <v>435664</v>
       </c>
       <c r="F57" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G57" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2443,22 +2482,22 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D58" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E58">
         <v>471058</v>
       </c>
       <c r="F58" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G58" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2466,19 +2505,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D59" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F59" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G59" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2486,19 +2525,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F60" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="G60" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2506,22 +2545,22 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E61">
         <v>130897</v>
       </c>
       <c r="F61" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G61" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2529,13 +2568,13 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D62" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E62">
         <v>43510</v>
@@ -2546,13 +2585,13 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D63" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E63">
         <v>21760</v>
@@ -2563,16 +2602,102 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D64" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E64">
         <v>16126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65">
+        <v>554901</v>
+      </c>
+      <c r="F65" t="s">
+        <v>267</v>
+      </c>
+      <c r="G65" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" t="s">
+        <v>253</v>
+      </c>
+      <c r="E66">
+        <v>33907</v>
+      </c>
+      <c r="F66" t="s">
+        <v>268</v>
+      </c>
+      <c r="G66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" t="s">
+        <v>254</v>
+      </c>
+      <c r="E67">
+        <v>75855</v>
+      </c>
+      <c r="F67" t="s">
+        <v>280</v>
+      </c>
+      <c r="G67" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" t="s">
+        <v>255</v>
+      </c>
+      <c r="E68">
+        <v>25357</v>
       </c>
     </row>
   </sheetData>

--- a/data/cleaned_data/2020_FL.xlsx
+++ b/data/cleaned_data/2020_FL.xlsx
@@ -22,7 +22,7 @@
     <t>County</t>
   </si>
   <si>
-    <t>fatalaties</t>
+    <t>fatalities</t>
   </si>
   <si>
     <t>injuries</t>
@@ -2696,6 +2696,9 @@
       <c r="E59" t="s">
         <v>248</v>
       </c>
+      <c r="F59">
+        <v>276916</v>
+      </c>
       <c r="G59" t="s">
         <v>259</v>
       </c>
@@ -2718,6 +2721,9 @@
       </c>
       <c r="E60" t="s">
         <v>249</v>
+      </c>
+      <c r="F60">
+        <v>331275</v>
       </c>
       <c r="G60" t="s">
         <v>280</v>
